--- a/SchedulingData/dynamic14/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.28</v>
+        <v>230.74</v>
       </c>
       <c r="D2" t="n">
-        <v>247.34</v>
+        <v>302.72</v>
       </c>
       <c r="E2" t="n">
-        <v>15.776</v>
+        <v>12.348</v>
       </c>
     </row>
     <row r="3">
@@ -485,93 +485,93 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244.34</v>
+        <v>250.04</v>
       </c>
       <c r="D3" t="n">
-        <v>292.84</v>
+        <v>296.62</v>
       </c>
       <c r="E3" t="n">
-        <v>11.856</v>
+        <v>11.528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>217.06</v>
+        <v>204.1</v>
       </c>
       <c r="D4" t="n">
-        <v>290.96</v>
+        <v>265.24</v>
       </c>
       <c r="E4" t="n">
-        <v>10.584</v>
+        <v>14.136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>202.96</v>
+        <v>265.24</v>
       </c>
       <c r="D5" t="n">
-        <v>277.96</v>
+        <v>337.94</v>
       </c>
       <c r="E5" t="n">
-        <v>16.704</v>
+        <v>10.496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>292.84</v>
+        <v>240.78</v>
       </c>
       <c r="D6" t="n">
-        <v>353.9</v>
+        <v>299.68</v>
       </c>
       <c r="E6" t="n">
-        <v>7.88</v>
+        <v>12.712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>221.64</v>
+        <v>264.22</v>
       </c>
       <c r="D7" t="n">
-        <v>277.6</v>
+        <v>313.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.92</v>
+        <v>7.968</v>
       </c>
     </row>
     <row r="8">
@@ -580,41 +580,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>277.6</v>
+        <v>211.14</v>
       </c>
       <c r="D8" t="n">
-        <v>351.92</v>
+        <v>267</v>
       </c>
       <c r="E8" t="n">
-        <v>6.608</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>351.92</v>
+        <v>337.94</v>
       </c>
       <c r="D9" t="n">
-        <v>417.68</v>
+        <v>375.64</v>
       </c>
       <c r="E9" t="n">
-        <v>3.632</v>
+        <v>7.856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,108 +622,108 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>353.9</v>
+        <v>313.22</v>
       </c>
       <c r="D10" t="n">
-        <v>421.3</v>
+        <v>371.02</v>
       </c>
       <c r="E10" t="n">
-        <v>4.72</v>
+        <v>4.808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>200.26</v>
+        <v>267</v>
       </c>
       <c r="D11" t="n">
-        <v>252.64</v>
+        <v>321.42</v>
       </c>
       <c r="E11" t="n">
-        <v>12.416</v>
+        <v>9.628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>290.96</v>
+        <v>299.68</v>
       </c>
       <c r="D12" t="n">
-        <v>339.46</v>
+        <v>367.02</v>
       </c>
       <c r="E12" t="n">
-        <v>7.864</v>
+        <v>9.587999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>339.46</v>
+        <v>375.64</v>
       </c>
       <c r="D13" t="n">
-        <v>407.66</v>
+        <v>444.7</v>
       </c>
       <c r="E13" t="n">
-        <v>5.624</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>277.96</v>
+        <v>321.42</v>
       </c>
       <c r="D14" t="n">
-        <v>328.46</v>
+        <v>397.5</v>
       </c>
       <c r="E14" t="n">
-        <v>12.784</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>328.46</v>
+        <v>397.5</v>
       </c>
       <c r="D15" t="n">
-        <v>404.22</v>
+        <v>455</v>
       </c>
       <c r="E15" t="n">
-        <v>9.808</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>404.22</v>
+        <v>302.72</v>
       </c>
       <c r="D16" t="n">
-        <v>448.42</v>
+        <v>385.62</v>
       </c>
       <c r="E16" t="n">
-        <v>6.528</v>
+        <v>7.188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>252.64</v>
+        <v>296.62</v>
       </c>
       <c r="D17" t="n">
-        <v>335.54</v>
+        <v>361.52</v>
       </c>
       <c r="E17" t="n">
-        <v>7.256</v>
+        <v>7.148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>407.66</v>
+        <v>385.62</v>
       </c>
       <c r="D18" t="n">
-        <v>453.26</v>
+        <v>429.18</v>
       </c>
       <c r="E18" t="n">
-        <v>3.204</v>
+        <v>4.452</v>
       </c>
     </row>
     <row r="19">
@@ -789,169 +789,169 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>421.3</v>
+        <v>361.52</v>
       </c>
       <c r="D19" t="n">
-        <v>477.34</v>
+        <v>421.52</v>
       </c>
       <c r="E19" t="n">
-        <v>1.236</v>
+        <v>2.768</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>477.34</v>
+        <v>371.02</v>
       </c>
       <c r="D20" t="n">
-        <v>566.37</v>
+        <v>442.42</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>417.68</v>
+        <v>442.42</v>
       </c>
       <c r="D21" t="n">
-        <v>480.62</v>
+        <v>532.34</v>
       </c>
       <c r="E21" t="n">
-        <v>0.928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>480.62</v>
+        <v>367.02</v>
       </c>
       <c r="D22" t="n">
-        <v>580.0599999999999</v>
+        <v>416.4</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>247.34</v>
+        <v>421.52</v>
       </c>
       <c r="D23" t="n">
-        <v>316.24</v>
+        <v>482.98</v>
       </c>
       <c r="E23" t="n">
-        <v>11.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>580.0599999999999</v>
+        <v>482.98</v>
       </c>
       <c r="D24" t="n">
-        <v>644.54</v>
+        <v>554.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>27.192</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>448.42</v>
+        <v>554.3200000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>491.06</v>
+        <v>634.02</v>
       </c>
       <c r="E25" t="n">
-        <v>3.404</v>
+        <v>23.136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>316.24</v>
+        <v>532.34</v>
       </c>
       <c r="D26" t="n">
-        <v>354.04</v>
+        <v>597.84</v>
       </c>
       <c r="E26" t="n">
-        <v>8.875999999999999</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>354.04</v>
+        <v>634.02</v>
       </c>
       <c r="D27" t="n">
-        <v>413.36</v>
+        <v>701.76</v>
       </c>
       <c r="E27" t="n">
-        <v>4.564</v>
+        <v>20.432</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>491.06</v>
+        <v>429.18</v>
       </c>
       <c r="D28" t="n">
-        <v>546.12</v>
+        <v>501.24</v>
       </c>
       <c r="E28" t="n">
-        <v>1.028</v>
+        <v>1.856</v>
       </c>
     </row>
     <row r="29">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>546.12</v>
+        <v>501.24</v>
       </c>
       <c r="D29" t="n">
-        <v>650.46</v>
+        <v>569.53</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -994,83 +994,83 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>644.54</v>
+        <v>416.4</v>
       </c>
       <c r="D30" t="n">
-        <v>674.7</v>
+        <v>451.56</v>
       </c>
       <c r="E30" t="n">
-        <v>24.816</v>
+        <v>4.404</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>566.37</v>
+        <v>444.7</v>
       </c>
       <c r="D31" t="n">
-        <v>655.99</v>
+        <v>522.8</v>
       </c>
       <c r="E31" t="n">
-        <v>25.688</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>674.7</v>
+        <v>522.8</v>
       </c>
       <c r="D32" t="n">
-        <v>727.74</v>
+        <v>588.08</v>
       </c>
       <c r="E32" t="n">
-        <v>22.112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>413.36</v>
+        <v>597.84</v>
       </c>
       <c r="D33" t="n">
-        <v>480.52</v>
+        <v>653.0599999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>1.968</v>
+        <v>24.668</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>480.52</v>
+        <v>455</v>
       </c>
       <c r="D34" t="n">
-        <v>553.58</v>
+        <v>532</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,40 +1089,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>553.58</v>
+        <v>532</v>
       </c>
       <c r="D35" t="n">
-        <v>614.1799999999999</v>
+        <v>588.1</v>
       </c>
       <c r="E35" t="n">
-        <v>25.62</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>655.99</v>
+        <v>588.08</v>
       </c>
       <c r="D36" t="n">
-        <v>721.41</v>
+        <v>670.28</v>
       </c>
       <c r="E36" t="n">
-        <v>22.776</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>650.46</v>
+        <v>569.53</v>
       </c>
       <c r="D37" t="n">
-        <v>706.74</v>
+        <v>613.37</v>
       </c>
       <c r="E37" t="n">
-        <v>27.032</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>335.54</v>
+        <v>588.1</v>
       </c>
       <c r="D38" t="n">
-        <v>388.14</v>
+        <v>648.88</v>
       </c>
       <c r="E38" t="n">
-        <v>3.616</v>
+        <v>23.112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>614.1799999999999</v>
+        <v>653.0599999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>657.84</v>
+        <v>693.02</v>
       </c>
       <c r="E39" t="n">
-        <v>22.884</v>
+        <v>22.292</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>388.14</v>
+        <v>451.56</v>
       </c>
       <c r="D40" t="n">
-        <v>441.18</v>
+        <v>525.36</v>
       </c>
       <c r="E40" t="n">
-        <v>0.912</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="41">
@@ -1207,14 +1207,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>441.18</v>
+        <v>525.36</v>
       </c>
       <c r="D41" t="n">
-        <v>540.66</v>
+        <v>611.67</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1226,55 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>540.66</v>
+        <v>611.67</v>
       </c>
       <c r="D42" t="n">
-        <v>590.52</v>
+        <v>680.01</v>
       </c>
       <c r="E42" t="n">
-        <v>27.184</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond58</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>657.84</v>
-      </c>
-      <c r="D43" t="n">
-        <v>709.74</v>
-      </c>
-      <c r="E43" t="n">
-        <v>19.804</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond17</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>706.74</v>
-      </c>
-      <c r="D44" t="n">
-        <v>751.84</v>
-      </c>
-      <c r="E44" t="n">
-        <v>24.632</v>
+        <v>27.296</v>
       </c>
     </row>
   </sheetData>
